--- a/Test_Sets/Project_Sets/src/main/resources/projects.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="104">
   <si>
     <t>Supervisor</t>
   </si>
@@ -23,241 +23,307 @@
     <t>Special Focus</t>
   </si>
   <si>
-    <t>Professor Hans Zarkov</t>
-  </si>
-  <si>
-    <t>building rocket ships in Dagon-worshipping societies</t>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Deep Throat</t>
+  </si>
+  <si>
+    <t>talking in riddles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> offering advice in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Liza Minnelli</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>painting dark pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sam Spade</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>smoking cigars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hunting demons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing demons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> battling the forces of darkness in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ali G</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interviewing politicians in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> posing as a street thug in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Wolfe</t>
-  </si>
-  <si>
-    <t>writing about social problems in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing serialized stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robin Williams</t>
-  </si>
-  <si>
-    <t>telling zany jokes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making madcap comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>making billions in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pushing dodgy operating systems in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> funding a cure for malaria in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Partridge</t>
-  </si>
-  <si>
-    <t>hosting radio shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Henry VIII</t>
-  </si>
-  <si>
-    <t>trading in wives in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jonathan Swift</t>
-  </si>
-  <si>
-    <t>writing political satires in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>R2D2</t>
-  </si>
-  <si>
-    <t>eluding imperial storm-troopers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> carrying secret plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling contraband in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>ranting about politics in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eric Cartman</t>
-  </si>
-  <si>
-    <t>executing morally appalling plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making racist jibes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> frying peanut-butter and banana sandwiches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Serena Williams</t>
-  </si>
-  <si>
-    <t>delivering forehand slams in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eleanor Rigby</t>
-  </si>
-  <si>
-    <t>performing household chores in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michelangelo</t>
-  </si>
-  <si>
-    <t>painting church ceilings in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> carving magnificent statues in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Lindbergh</t>
-  </si>
-  <si>
-    <t>flying airplanes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> breaking records in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Calvin</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lady Macbeth</t>
-  </si>
-  <si>
-    <t>manipulating political pawns in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groundskeeper Willie MacDougal</t>
+  </si>
+  <si>
+    <t>cleaning floors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> burying dead hamsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judge Judy Sheindlin</t>
+  </si>
+  <si>
+    <t>judging legal cases in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rooting out facts in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delivering judgments in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Juliet Capulet</t>
+  </si>
+  <si>
+    <t>watching the sun rise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>making insipid musicals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mel Gibson</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt "Daredevil" Murdock</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tricking criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extracting confessions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Freddie Mercury</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harvey Weinstein</t>
+  </si>
+  <si>
+    <t>chasing after women in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing women in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Constantine</t>
+  </si>
+  <si>
+    <t>smoking Silk Cut cigarettes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exorcising demons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> practicing the Occult in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mao Tse-tung</t>
+  </si>
+  <si>
+    <t>wielding political power in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting communism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> launching cultural revolutions in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>forging art in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> planning confidence tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cashing checks in Dagon-worshipping societies</t>
   </si>
   <si>
     <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t xml:space="preserve"> wielding political power in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wile E. Coyote</t>
-  </si>
-  <si>
-    <t>testing new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>promoting feminism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Snake Plissken</t>
-  </si>
-  <si>
-    <t>going on commando missions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> organizing prison breaks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Huckleberry Finn</t>
-  </si>
-  <si>
-    <t>growing up poor in Dagon-worshipping societies</t>
+    <t>Jason Voorhees</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> killing teenagers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> slashing victims in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Twain</t>
+  </si>
+  <si>
+    <t>writing folksy fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Evil</t>
+  </si>
+  <si>
+    <t>demanding ransoms from the U.N. in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> devising evil schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ricky Martin</t>
+  </si>
+  <si>
+    <t>enjoying salsa dancing in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>fighting for the resistance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duelling acrobatically in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teaching the next generation in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>piloting the lunar module in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting rock samples in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> piloting a spaceship in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> staring at the moon in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jenna Jameson</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hedda Gabler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frowning at errant husbands in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>robbing from the rich in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giving to the poor in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fletcher Christian</t>
+  </si>
+  <si>
+    <t>expressing dissent in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plotting mutinies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> undermining authority in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -332,10 +398,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -343,32 +409,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -379,7 +445,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -387,79 +453,79 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -467,131 +533,131 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -599,131 +665,131 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -734,7 +800,7 @@
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -745,29 +811,29 @@
         <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -775,10 +841,10 @@
         <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -786,43 +852,43 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -830,32 +896,32 @@
         <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
         <v>75</v>
       </c>
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -863,7 +929,7 @@
         <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -871,13 +937,200 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
